--- a/Online Appendix.xlsx
+++ b/Online Appendix.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Distribution of categories base" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Utilization of tags based on we" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Tags utilization based on websi" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sheet6" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Difficulty of categories based " sheetId="4" r:id="rId7"/>
   </sheets>

--- a/Online Appendix.xlsx
+++ b/Online Appendix.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Distribution of categories base" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Tags utilization based on websi" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Sheet6" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Difficulty of categories based " sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Categories based on website" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tags based on website" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Tags based on category" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Difficulty of categories" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -163,7 +163,7 @@
     <t>Tag</t>
   </si>
   <si>
-    <t>Percent</t>
+    <t>Percentage of utilization</t>
   </si>
   <si>
     <t>sonarqube</t>
@@ -2806,6 +2806,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="7" max="7" width="27.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">

--- a/Online Appendix.xlsx
+++ b/Online Appendix.xlsx
@@ -6,7 +6,7 @@
     <sheet state="visible" name="Categories based on website" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Tags based on website" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Tags based on category" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Difficulty of categories" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Category statistics" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2879" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="725">
   <si>
     <t>Category/Website</t>
   </si>
@@ -2095,7 +2095,17 @@
     <t>other</t>
   </si>
   <si>
-    <t>% of questions without accepted answer and median time elapsed to receive an accepted answer based on category</t>
+    <t>Category statistics on all websites</t>
+  </si>
+  <si>
+    <t>Mean(views)</t>
+  </si>
+  <si>
+    <t>% of questions that have 
+at least one answer</t>
+  </si>
+  <si>
+    <t>Mean(answer)</t>
   </si>
   <si>
     <t>% of questions without 
@@ -2106,79 +2116,70 @@
 an accepted answer</t>
   </si>
   <si>
-    <t>49.02</t>
-  </si>
-  <si>
-    <t>76.19</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>33.33</t>
-  </si>
-  <si>
-    <t>206</t>
+    <t>2432</t>
+  </si>
+  <si>
+    <t>98.04</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>90.48</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1856</t>
+  </si>
+  <si>
+    <t>324</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>66.67</t>
-  </si>
-  <si>
-    <t>406</t>
-  </si>
-  <si>
-    <t>36.36</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>26.32</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>50.67</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>52.99</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>59.62</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
-    <t>43.75</t>
-  </si>
-  <si>
-    <t>43</t>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>90.91</t>
+  </si>
+  <si>
+    <t>3270</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>86.67</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>1443</t>
+  </si>
+  <si>
+    <t>83.58</t>
+  </si>
+  <si>
+    <t>2422</t>
+  </si>
+  <si>
+    <t>1785</t>
+  </si>
+  <si>
+    <t>83.57</t>
+  </si>
+  <si>
+    <t>3881</t>
   </si>
   <si>
     <t>% of questions without accepted answer and median time elapsed to receive an accepted answer based on category on SO</t>
@@ -34817,7 +34818,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="45.5"/>
     <col customWidth="1" min="2" max="2" width="27.75"/>
-    <col customWidth="1" min="3" max="3" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="21.38"/>
+    <col customWidth="1" min="5" max="6" width="18.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -34850,15 +34852,21 @@
       <c r="A2" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="D2" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>698</v>
+      </c>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -34885,14 +34893,20 @@
         <v>687</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+        <v>700</v>
+      </c>
+      <c r="D3" s="9">
+        <v>5.75</v>
+      </c>
+      <c r="E3" s="9">
+        <v>49.02</v>
+      </c>
+      <c r="F3" s="9">
+        <v>47.0</v>
+      </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
@@ -34919,14 +34933,20 @@
         <v>688</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+        <v>702</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="E4" s="9">
+        <v>76.19</v>
+      </c>
+      <c r="F4" s="9">
+        <v>232.0</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -34953,14 +34973,20 @@
         <v>689</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>700</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3.83</v>
+      </c>
+      <c r="E5" s="9">
+        <v>33.33</v>
+      </c>
+      <c r="F5" s="9">
+        <v>206.0</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
@@ -34987,14 +35013,20 @@
         <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>702</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>80.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>28.0</v>
+      </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
@@ -35021,14 +35053,20 @@
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>704</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+        <v>707</v>
+      </c>
+      <c r="D7" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>66.67</v>
+      </c>
+      <c r="F7" s="9">
+        <v>406.0</v>
+      </c>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -35055,14 +35093,20 @@
         <v>690</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>706</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+        <v>709</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4.27</v>
+      </c>
+      <c r="E8" s="9">
+        <v>36.36</v>
+      </c>
+      <c r="F8" s="9">
+        <v>228.0</v>
+      </c>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -35089,14 +35133,20 @@
         <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4.47</v>
+      </c>
+      <c r="E9" s="9">
+        <v>26.32</v>
+      </c>
+      <c r="F9" s="9">
+        <v>51.0</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -35123,14 +35173,20 @@
         <v>691</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>50.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>104.0</v>
+      </c>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
@@ -35157,14 +35213,20 @@
         <v>27</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+        <v>713</v>
+      </c>
+      <c r="D11" s="9">
+        <v>2.45</v>
+      </c>
+      <c r="E11" s="9">
+        <v>50.67</v>
+      </c>
+      <c r="F11" s="9">
+        <v>110.0</v>
+      </c>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -35191,14 +35253,20 @@
         <v>31</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D12" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="E12" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>27.0</v>
+      </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -35225,14 +35293,20 @@
         <v>33</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>716</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2.23</v>
+      </c>
+      <c r="E13" s="9">
+        <v>52.99</v>
+      </c>
+      <c r="F13" s="9">
+        <v>52.0</v>
+      </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
@@ -35259,14 +35333,20 @@
         <v>38</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D14" s="9">
+        <v>3.19</v>
+      </c>
+      <c r="E14" s="9">
+        <v>33.33</v>
+      </c>
+      <c r="F14" s="9">
+        <v>64.0</v>
+      </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -35293,14 +35373,20 @@
         <v>41</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>719</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.16</v>
+      </c>
+      <c r="E15" s="9">
+        <v>59.62</v>
+      </c>
+      <c r="F15" s="9">
+        <v>909.0</v>
+      </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -35327,14 +35413,20 @@
         <v>44</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+        <v>704</v>
+      </c>
+      <c r="D16" s="9">
+        <v>6.94</v>
+      </c>
+      <c r="E16" s="9">
+        <v>43.75</v>
+      </c>
+      <c r="F16" s="9">
+        <v>43.0</v>
+      </c>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
@@ -35414,15 +35506,21 @@
       <c r="A19" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="D19" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>698</v>
+      </c>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -35449,14 +35547,20 @@
         <v>687</v>
       </c>
       <c r="B20" s="9">
+        <v>884.0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D20" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E20" s="9">
         <v>33.33</v>
       </c>
-      <c r="C20" s="9">
+      <c r="F20" s="9">
         <v>151.0</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
@@ -35483,14 +35587,20 @@
         <v>688</v>
       </c>
       <c r="B21" s="9">
+        <v>467.0</v>
+      </c>
+      <c r="C21" s="9">
+        <v>86.67</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E21" s="9">
         <v>73.33</v>
       </c>
-      <c r="C21" s="9">
+      <c r="F21" s="9">
         <v>162.0</v>
       </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
@@ -35551,14 +35661,20 @@
         <v>15</v>
       </c>
       <c r="B23" s="9">
+        <v>2329.0</v>
+      </c>
+      <c r="C23" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D23" s="9">
+        <v>2.43</v>
+      </c>
+      <c r="E23" s="9">
         <v>85.71</v>
       </c>
-      <c r="C23" s="9">
+      <c r="F23" s="9">
         <v>7.0</v>
       </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -35585,14 +35701,20 @@
         <v>18</v>
       </c>
       <c r="B24" s="9">
+        <v>324.0</v>
+      </c>
+      <c r="C24" s="9">
+        <v>80.0</v>
+      </c>
+      <c r="D24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="9">
         <v>66.67</v>
       </c>
-      <c r="C24" s="9">
+      <c r="F24" s="9">
         <v>406.0</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -35619,14 +35741,20 @@
         <v>690</v>
       </c>
       <c r="B25" s="9">
+        <v>828.0</v>
+      </c>
+      <c r="C25" s="9">
+        <v>80.0</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3.8</v>
+      </c>
+      <c r="E25" s="9">
         <v>40.0</v>
       </c>
-      <c r="C25" s="9">
+      <c r="F25" s="9">
         <v>1434.0</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
@@ -35653,14 +35781,20 @@
         <v>24</v>
       </c>
       <c r="B26" s="9">
-        <v>0.0</v>
+        <v>585.0</v>
       </c>
       <c r="C26" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D26" s="9">
+        <v>2.2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F26" s="9">
         <v>24.0</v>
       </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -35687,14 +35821,20 @@
         <v>691</v>
       </c>
       <c r="B27" s="9">
-        <v>0.0</v>
+        <v>769.0</v>
       </c>
       <c r="C27" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F27" s="9">
         <v>104.0</v>
       </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -35721,14 +35861,20 @@
         <v>27</v>
       </c>
       <c r="B28" s="9">
+        <v>407.0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>80.85</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1.77</v>
+      </c>
+      <c r="E28" s="9">
         <v>55.32</v>
       </c>
-      <c r="C28" s="9">
+      <c r="F28" s="9">
         <v>83.0</v>
       </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
@@ -35755,14 +35901,20 @@
         <v>31</v>
       </c>
       <c r="B29" s="9">
-        <v>0.0</v>
+        <v>422.0</v>
       </c>
       <c r="C29" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3.33</v>
+      </c>
+      <c r="E29" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F29" s="9">
         <v>27.0</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -35789,14 +35941,20 @@
         <v>33</v>
       </c>
       <c r="B30" s="9">
+        <v>1313.0</v>
+      </c>
+      <c r="C30" s="9">
+        <v>79.12</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1.59</v>
+      </c>
+      <c r="E30" s="9">
         <v>50.55</v>
       </c>
-      <c r="C30" s="9">
+      <c r="F30" s="9">
         <v>51.0</v>
       </c>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
@@ -35823,14 +35981,20 @@
         <v>38</v>
       </c>
       <c r="B31" s="9">
+        <v>3206.0</v>
+      </c>
+      <c r="C31" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>2.82</v>
+      </c>
+      <c r="E31" s="9">
         <v>9.09</v>
       </c>
-      <c r="C31" s="9">
+      <c r="F31" s="9">
         <v>113.0</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
@@ -35857,14 +36021,20 @@
         <v>41</v>
       </c>
       <c r="B32" s="9">
+        <v>1769.0</v>
+      </c>
+      <c r="C32" s="9">
+        <v>82.76</v>
+      </c>
+      <c r="D32" s="9">
+        <v>1.1</v>
+      </c>
+      <c r="E32" s="9">
         <v>60.1</v>
       </c>
-      <c r="C32" s="9">
+      <c r="F32" s="9">
         <v>1048.0</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
@@ -35890,15 +36060,21 @@
       <c r="A33" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="9">
+        <v>584.0</v>
+      </c>
+      <c r="C33" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D33" s="9">
+        <v>2.33</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
@@ -35978,15 +36154,21 @@
       <c r="A36" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+      <c r="D36" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>698</v>
+      </c>
       <c r="G36" s="10"/>
       <c r="H36" s="10"/>
       <c r="I36" s="10"/>
@@ -36013,14 +36195,20 @@
         <v>687</v>
       </c>
       <c r="B37" s="9">
+        <v>2917.0</v>
+      </c>
+      <c r="C37" s="9">
+        <v>97.44</v>
+      </c>
+      <c r="D37" s="9">
+        <v>6.15</v>
+      </c>
+      <c r="E37" s="9">
         <v>51.28</v>
       </c>
-      <c r="C37" s="9">
+      <c r="F37" s="9">
         <v>42.0</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
@@ -36047,14 +36235,20 @@
         <v>688</v>
       </c>
       <c r="B38" s="9">
+        <v>335.0</v>
+      </c>
+      <c r="C38" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D38" s="9">
+        <v>4.33</v>
+      </c>
+      <c r="E38" s="9">
         <v>66.67</v>
       </c>
-      <c r="C38" s="9">
+      <c r="F38" s="9">
         <v>1088.0</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -36081,14 +36275,20 @@
         <v>689</v>
       </c>
       <c r="B39" s="9">
+        <v>1710.0</v>
+      </c>
+      <c r="C39" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3.83</v>
+      </c>
+      <c r="E39" s="9">
         <v>33.33</v>
       </c>
-      <c r="C39" s="9">
+      <c r="F39" s="9">
         <v>206.0</v>
       </c>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -36115,14 +36315,20 @@
         <v>15</v>
       </c>
       <c r="B40" s="9">
+        <v>754.0</v>
+      </c>
+      <c r="C40" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2.67</v>
+      </c>
+      <c r="E40" s="9">
         <v>66.67</v>
       </c>
-      <c r="C40" s="9">
+      <c r="F40" s="9">
         <v>50.0</v>
       </c>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -36183,14 +36389,20 @@
         <v>690</v>
       </c>
       <c r="B42" s="9">
-        <v>0.0</v>
+        <v>3954.0</v>
       </c>
       <c r="C42" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D42" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="E42" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="9">
         <v>126.0</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
       <c r="G42" s="10"/>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
@@ -36217,14 +36429,20 @@
         <v>24</v>
       </c>
       <c r="B43" s="9">
+        <v>5168.0</v>
+      </c>
+      <c r="C43" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D43" s="9">
+        <v>5.73</v>
+      </c>
+      <c r="E43" s="9">
         <v>36.36</v>
       </c>
-      <c r="C43" s="9">
+      <c r="F43" s="9">
         <v>51.0</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
       <c r="G43" s="10"/>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
@@ -36285,14 +36503,20 @@
         <v>27</v>
       </c>
       <c r="B45" s="9">
+        <v>3476.0</v>
+      </c>
+      <c r="C45" s="9">
+        <v>95.83</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="E45" s="9">
         <v>41.67</v>
       </c>
-      <c r="C45" s="9">
+      <c r="F45" s="9">
         <v>109.0</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
@@ -36319,14 +36543,20 @@
         <v>31</v>
       </c>
       <c r="B46" s="9">
+        <v>1552.0</v>
+      </c>
+      <c r="C46" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D46" s="9">
+        <v>3.6</v>
+      </c>
+      <c r="E46" s="9">
         <v>40.0</v>
       </c>
-      <c r="C46" s="9">
+      <c r="F46" s="9">
         <v>14.0</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
@@ -36353,14 +36583,20 @@
         <v>33</v>
       </c>
       <c r="B47" s="9">
+        <v>1618.0</v>
+      </c>
+      <c r="C47" s="9">
+        <v>91.43</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3.66</v>
+      </c>
+      <c r="E47" s="9">
         <v>51.43</v>
       </c>
-      <c r="C47" s="9">
+      <c r="F47" s="9">
         <v>60.0</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
@@ -36387,14 +36623,20 @@
         <v>38</v>
       </c>
       <c r="B48" s="9">
+        <v>2791.0</v>
+      </c>
+      <c r="C48" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="E48" s="9">
         <v>33.33</v>
       </c>
-      <c r="C48" s="9">
+      <c r="F48" s="9">
         <v>47.0</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
       <c r="G48" s="10"/>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
@@ -36421,14 +36663,20 @@
         <v>41</v>
       </c>
       <c r="B49" s="9">
+        <v>3228.0</v>
+      </c>
+      <c r="C49" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D49" s="9">
+        <v>2.83</v>
+      </c>
+      <c r="E49" s="9">
         <v>16.67</v>
       </c>
-      <c r="C49" s="9">
+      <c r="F49" s="9">
         <v>38.0</v>
       </c>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -36455,14 +36703,20 @@
         <v>44</v>
       </c>
       <c r="B50" s="9">
+        <v>5024.0</v>
+      </c>
+      <c r="C50" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D50" s="9">
+        <v>8.58</v>
+      </c>
+      <c r="E50" s="9">
         <v>25.0</v>
       </c>
-      <c r="C50" s="9">
+      <c r="F50" s="9">
         <v>43.0</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -36542,15 +36796,21 @@
       <c r="A53" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="9" t="s">
         <v>694</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="D53" s="9" t="s">
+        <v>696</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>698</v>
+      </c>
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="I53" s="10"/>
@@ -36577,14 +36837,20 @@
         <v>687</v>
       </c>
       <c r="B54" s="9">
+        <v>824.0</v>
+      </c>
+      <c r="C54" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D54" s="9">
+        <v>4.33</v>
+      </c>
+      <c r="E54" s="9">
         <v>50.0</v>
       </c>
-      <c r="C54" s="9">
+      <c r="F54" s="9">
         <v>181.0</v>
       </c>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
@@ -36610,15 +36876,21 @@
       <c r="A55" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="9">
+        <v>535.0</v>
+      </c>
+      <c r="C55" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D55" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
@@ -36743,18 +37015,24 @@
       <c r="Z58" s="10"/>
     </row>
     <row r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="11" t="s">
         <v>690</v>
       </c>
       <c r="B59" s="9">
+        <v>835.0</v>
+      </c>
+      <c r="C59" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D59" s="9">
+        <v>3.75</v>
+      </c>
+      <c r="E59" s="9">
         <v>50.0</v>
       </c>
-      <c r="C59" s="9">
+      <c r="F59" s="9">
         <v>269.0</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
       <c r="G59" s="10"/>
       <c r="H59" s="10"/>
       <c r="I59" s="10"/>
@@ -36781,14 +37059,20 @@
         <v>24</v>
       </c>
       <c r="B60" s="9">
+        <v>783.0</v>
+      </c>
+      <c r="C60" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3.67</v>
+      </c>
+      <c r="E60" s="9">
         <v>33.33</v>
       </c>
-      <c r="C60" s="9">
+      <c r="F60" s="9">
         <v>538.0</v>
       </c>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="10"/>
       <c r="I60" s="10"/>
@@ -36814,15 +37098,21 @@
       <c r="A61" s="11" t="s">
         <v>691</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="9">
+        <v>224.0</v>
+      </c>
+      <c r="C61" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D61" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
       <c r="G61" s="10"/>
       <c r="H61" s="10"/>
       <c r="I61" s="10"/>
@@ -36849,14 +37139,20 @@
         <v>27</v>
       </c>
       <c r="B62" s="9">
+        <v>752.0</v>
+      </c>
+      <c r="C62" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D62" s="9">
+        <v>2.75</v>
+      </c>
+      <c r="E62" s="9">
         <v>50.0</v>
       </c>
-      <c r="C62" s="9">
+      <c r="F62" s="9">
         <v>505.0</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
       <c r="G62" s="10"/>
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
@@ -36883,14 +37179,20 @@
         <v>31</v>
       </c>
       <c r="B63" s="9">
+        <v>1059.0</v>
+      </c>
+      <c r="C63" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D63" s="9">
+        <v>4.25</v>
+      </c>
+      <c r="E63" s="9">
         <v>25.0</v>
       </c>
-      <c r="C63" s="9">
+      <c r="F63" s="9">
         <v>356.0</v>
       </c>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
       <c r="G63" s="10"/>
       <c r="H63" s="10"/>
       <c r="I63" s="10"/>
@@ -36917,14 +37219,20 @@
         <v>33</v>
       </c>
       <c r="B64" s="9">
+        <v>2160.0</v>
+      </c>
+      <c r="C64" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D64" s="9">
+        <v>3.25</v>
+      </c>
+      <c r="E64" s="9">
         <v>87.5</v>
       </c>
-      <c r="C64" s="9">
+      <c r="F64" s="9">
         <v>416.0</v>
       </c>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
       <c r="G64" s="10"/>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -36951,14 +37259,20 @@
         <v>38</v>
       </c>
       <c r="B65" s="9">
+        <v>1420.0</v>
+      </c>
+      <c r="C65" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D65" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="E65" s="9">
         <v>53.85</v>
       </c>
-      <c r="C65" s="9">
+      <c r="F65" s="9">
         <v>157.0</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
@@ -36984,15 +37298,21 @@
       <c r="A66" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="9">
+        <v>424.0</v>
+      </c>
+      <c r="C66" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1.75</v>
+      </c>
+      <c r="E66" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="F66" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
@@ -37018,15 +37338,21 @@
       <c r="A67" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="9">
+        <v>55.0</v>
+      </c>
+      <c r="C67" s="9">
+        <v>100.0</v>
+      </c>
+      <c r="D67" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
       <c r="G67" s="10"/>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
@@ -63314,8 +63640,8 @@
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A1:E1"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="A52:E52"/>
   </mergeCells>

--- a/Online Appendix.xlsx
+++ b/Online Appendix.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="725">
   <si>
     <t>Category/Website</t>
   </si>
@@ -35632,9 +35632,15 @@
       <c r="C22" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
@@ -36360,9 +36366,15 @@
       <c r="C41" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
+      <c r="D41" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
@@ -36474,9 +36486,15 @@
       <c r="C44" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G44" s="10"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
@@ -36922,9 +36940,15 @@
       <c r="C56" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
+      <c r="D56" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G56" s="10"/>
       <c r="H56" s="10"/>
       <c r="I56" s="10"/>
@@ -36956,9 +36980,15 @@
       <c r="C57" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
+      <c r="D57" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G57" s="10"/>
       <c r="H57" s="10"/>
       <c r="I57" s="10"/>
@@ -36990,9 +37020,15 @@
       <c r="C58" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="D58" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>722</v>
+      </c>
       <c r="G58" s="10"/>
       <c r="H58" s="10"/>
       <c r="I58" s="10"/>
